--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3645.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3645.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.524810942953403</v>
+        <v>0.4325566589832306</v>
       </c>
       <c r="B1">
-        <v>1.653581373167726</v>
+        <v>1.875313997268677</v>
       </c>
       <c r="C1">
-        <v>1.698822353288955</v>
+        <v>2.204512596130371</v>
       </c>
       <c r="D1">
-        <v>2.102025408859773</v>
+        <v>1.938581228256226</v>
       </c>
       <c r="E1">
-        <v>3.124326342636924</v>
+        <v>0.9797055721282959</v>
       </c>
     </row>
   </sheetData>
